--- a/Files/test.xlsx
+++ b/Files/test.xlsx
@@ -1,16 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WebTech\GitRepos\xlsxApp\new\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+  </bookViews>
   <sheets>
-    <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>Col 1</t>
+  </si>
+  <si>
+    <t>Col 2</t>
+  </si>
+  <si>
+    <t>Col 3</t>
+  </si>
+  <si>
+    <t>Row 1 1</t>
+  </si>
+  <si>
+    <t>Row 1 2</t>
+  </si>
+  <si>
+    <t>Row 2 1</t>
+  </si>
+  <si>
+    <t>Row 2 2</t>
+  </si>
+  <si>
+    <t>Row 3 1</t>
+  </si>
+  <si>
+    <t>Row 3 2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -39,15 +81,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -372,53 +421,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="str">
-        <v>sheetjs</v>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>foo</v>
-      </c>
-      <c r="B3" t="str">
-        <v>bar</v>
-      </c>
-      <c r="C3" s="1">
-        <v>41689.604166666664</v>
-      </c>
-      <c r="D3" t="str">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>baz</v>
-      </c>
-      <c r="C4" t="str">
-        <v>qux</v>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>